--- a/examples/003_pandapower_modelexchange/connections.xlsx
+++ b/examples/003_pandapower_modelexchange/connections.xlsx
@@ -52,7 +52,7 @@
     <t>pandapower/pandapower.fmu</t>
   </si>
   <si>
-    <t>{'A': 31645.569620253165, 'QMaxInd': 2310.0, 'hysP': 0.06, 'hysQ': 0.03, 'weather_file': 'C:\\Users\\Joscha\\Documents\\Github\\fmi-for-power-system\\examples\\003_pandapower_modelexchange\\pv_inverter\\USA_CA_San.Francisco.Intl.AP.724940_TMY3.mos', 'SMax': 5250.0, 'Tfirstorder': 60, 'lat': 37.9, 'thrP': 0.04, 'thrQ': 0.03, 'azi': 0, 'QMaxCap': 2310.0, 'n': 1, 'til': 10, 'eta': 0.158}</t>
+    <t>{'A': 9493.67088607595, 'QMaxInd': 693.0, 'hysP': 0.06, 'hysQ': 0.03, 'weather_file': 'C:\\Users\\Joscha\\Documents\\Github\\fmi-for-power-system\\examples\\003_pandapower_modelexchange\\pv_inverter\\USA_CA_San.Francisco.Intl.AP.724940_TMY3.mos', 'SMax': 1575.0, 'Tfirstorder': 60, 'lat': 37.9, 'thrP': 0.04, 'thrQ': 0.03, 'azi': 0, 'QMaxCap': 693.0, 'n': 1, 'til': 10, 'eta': 0.158}</t>
   </si>
   <si>
     <t>{}</t>
